--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -2992,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3013,13 +3013,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>m: 61.5% (56)
-w: 38.5% (35)
+          <t>mean(SD) = 58.8 (13.1)
+median(IQR) = 57 (51 - 70)
+range = 20 - 89
 complete: n = 91</t>
         </is>
       </c>
@@ -3027,10 +3028,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>male: 61.5% (56)
+female: 38.5% (35)
+complete: n = 91</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Severity</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>mild: 20.9% (19)
 moderate: 25.3% (23)
@@ -3040,13 +3055,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>up to 60: 59.3% (54)
 &gt;60: 40.7% (37)
@@ -3054,13 +3069,13 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>normal: 37.4% (34)
 overweight: 42.9% (39)
@@ -3069,13 +3084,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>PKY</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>0: 65.9% (60)
 1–10: 13.2% (12)
@@ -3085,13 +3100,13 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Smoking</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>never: 65.9% (60)
 ex: 34.1% (31)
@@ -3106,7 +3121,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3147,90 +3162,134 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>m: 31.6% (6)
-w: 68.4% (13)
+          <t>mean(SD) = 48.6 (12.5)
+median(IQR) = 50 (41.5 - 56.5)
+range = 20 - 72
 complete: n = 19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>m: 47.8% (11)
-w: 52.2% (12)
+          <t>mean(SD) = 60.6 (12.7)
+median(IQR) = 61 (53 - 71.5)
+range = 38 - 81
 complete: n = 23</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>m: 87% (20)
-w: 13% (3)
+          <t>mean(SD) = 64.7 (13.5)
+median(IQR) = 64 (56.5 - 77)
+range = 37 - 89
 complete: n = 23</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>m: 73.1% (19)
-w: 26.9% (7)
+          <t>mean(SD) = 59.4 (9.38)
+median(IQR) = 56.5 (53.2 - 65.8)
+range = 45 - 80
 complete: n = 26</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>p = 0.00079</t>
+          <t>p = 0.0019</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Sex</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>male: 31.6% (6)
+female: 68.4% (13)
+complete: n = 19</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>male: 47.8% (11)
+female: 52.2% (12)
+complete: n = 23</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>male: 87% (20)
+female: 13% (3)
+complete: n = 23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>male: 73.1% (19)
+female: 26.9% (7)
+complete: n = 26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>p = 0.00079</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>up to 60: 94.7% (18)
 &gt;60: 5.26% (1)
 complete: n = 19</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>up to 60: 47.8% (11)
 &gt;60: 52.2% (12)
 complete: n = 23</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>up to 60: 39.1% (9)
 &gt;60: 60.9% (14)
 complete: n = 23</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>up to 60: 61.5% (16)
 &gt;60: 38.5% (10)
 complete: n = 26</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>p = 0.0018</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>BMI</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>normal: 63.2% (12)
 overweight: 26.3% (5)
@@ -3238,7 +3297,7 @@
 complete: n = 19</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>normal: 30.4% (7)
 overweight: 56.5% (13)
@@ -3246,7 +3305,7 @@
 complete: n = 23</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>normal: 13% (3)
 overweight: 56.5% (13)
@@ -3254,7 +3313,7 @@
 complete: n = 23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>normal: 46.2% (12)
 overweight: 30.8% (8)
@@ -3262,19 +3321,19 @@
 complete: n = 26</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>p = 0.022</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>PKY</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>0: 84.2% (16)
 1–10: 15.8% (3)
@@ -3283,7 +3342,7 @@
 complete: n = 19</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>0: 65.2% (15)
 1–10: 8.7% (2)
@@ -3292,7 +3351,7 @@
 complete: n = 23</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>0: 52.2% (12)
 1–10: 17.4% (4)
@@ -3301,7 +3360,7 @@
 complete: n = 23</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>0: 65.4% (17)
 1–10: 11.5% (3)
@@ -3310,47 +3369,47 @@
 complete: n = 26</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ns (p = 0.39)</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Smoking</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>never: 84.2% (16)
 ex: 15.8% (3)
 complete: n = 19</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>never: 65.2% (15)
 ex: 34.8% (8)
 complete: n = 23</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>never: 52.2% (12)
 ex: 47.8% (11)
 complete: n = 23</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>never: 65.4% (17)
 ex: 34.6% (9)
 complete: n = 26</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>ns (p = 0.19)</t>
         </is>

--- a/paper/tables.xlsx
+++ b/paper/tables.xlsx
@@ -378,9 +378,9 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mean(SD) = 59 (13)
-median(IQR) = 57 (51 - 70)
-range = 20 - 89</t>
+          <t>Mean = 59 (SD: 13)
+Median = 57 [IQR: 51 - 70]
+Range: 20 - 89</t>
         </is>
       </c>
     </row>
@@ -400,27 +400,28 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>BMI</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>male: 62% (56)
-female: 38% (35)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BMI</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
         <is>
           <t>normal: 37% (34)
 overweight: 43% (39)
 obesity: 20% (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Packs/year</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mean = 6.8 (SD: 14)
+Median = 0 [IQR: 0 - 7.5]
+Range: 0 - 80</t>
         </is>
       </c>
     </row>
@@ -474,7 +475,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -511,6 +512,11 @@
           <t>Significance</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Effect size</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -521,30 +527,35 @@
       <c r="B2" t="inlineStr">
         <is>
           <t>76% (58)
-complete: n = 76</t>
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>63% (54)
-complete: n = 86</t>
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>67% (47)
-complete: n = 70</t>
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>54% (49)
-complete: n = 91</t>
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>p = .024</t>
+          <t>p = 0.024</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>V = 0.17</t>
         </is>
       </c>
     </row>
@@ -557,30 +568,35 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>54% (41)
-complete: n = 76</t>
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>36% (31)
-complete: n = 86</t>
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>27% (19)
-complete: n = 70</t>
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>20% (18)
-complete: n = 91</t>
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>p &lt; .001</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>V = 0.27</t>
         </is>
       </c>
     </row>
@@ -593,405 +609,374 @@
       <c r="B4" t="inlineStr">
         <is>
           <t>33% (25)
-complete: n = 76</t>
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>16% (14)
-complete: n = 86</t>
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>8.6% (6)
-complete: n = 70</t>
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>8.8% (8)
-complete: n = 91</t>
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>p &lt; .001</t>
+          <t>p &lt; 0.001</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>V = 0.26</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Any opacity</t>
+          <t>GGO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>77% (59)
-complete: n = 77</t>
+          <t>74% (56)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>66% (57)
-complete: n = 86</t>
+          <t>58% (50)
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>66% (47)
-complete: n = 71</t>
+          <t>56% (39)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>46% (42)
-complete: n = 91</t>
+          <t>44% (40)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>p &lt; .001</t>
+          <t>p = 0.0018</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>V = 0.22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Any high opacity</t>
+          <t>Reticulation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>68% (52)
-complete: n = 77</t>
+          <t>58% (44)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>56% (47)
-complete: n = 84</t>
+          <t>52% (45)
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>31% (22)
-complete: n = 71</t>
+          <t>56% (39)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>29% (26)
-complete: n = 91</t>
+          <t>43% (39)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>p &lt; .001</t>
+          <t>ns (p = 0.21)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>V = 0.12</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GGO</t>
+          <t>Consolidation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>74% (56)
-complete: n = 76</t>
+          <t>13% (10)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>58% (50)
-complete: n = 86</t>
+          <t>7% (6)
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>56% (39)
-complete: n = 70</t>
+          <t>1.4% (1)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>44% (40)
-complete: n = 91</t>
+          <t>1.1% (1)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>p = .0018</t>
+          <t>p = 0.0024</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>V = 0.21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Reticulation</t>
+          <t>Bronchial dilatation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>58% (44)
-complete: n = 76</t>
+          <t>11% (8)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>52% (45)
-complete: n = 86</t>
+          <t>7% (6)
+Complete: n = 86</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>56% (39)
-complete: n = 70</t>
+          <t>8.6% (6)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>43% (39)
-complete: n = 91</t>
+          <t>8.8% (8)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ns (p = .21)</t>
+          <t>ns (p = 0.89)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>V = 0.045</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Consolidation</t>
+          <t>Crazy paving</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13% (10)
-complete: n = 76</t>
+          <t>1.3% (1)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>7% (6)
-complete: n = 86</t>
+          <t>0% (0)
+Complete: n = 84</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.4% (1)
-complete: n = 70</t>
+          <t>0% (0)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.1% (1)
-complete: n = 91</t>
+          <t>0% (0)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>p = .0024</t>
+          <t>ns (p = 0.36)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>V = 0.1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bronchial dilatation</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>11% (8)
-complete: n = 76</t>
+          <t>7.9% (6)
+Complete: n = 76</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7% (6)
-complete: n = 86</t>
+          <t>7.1% (6)
+Complete: n = 84</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>8.6% (6)
-complete: n = 70</t>
+          <t>2.9% (2)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.8% (8)
-complete: n = 91</t>
+          <t>0% (0)
+Complete: n = 91</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>ns (p = .89)</t>
+          <t>p = 0.039</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>V = 0.16</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Crazy paving</t>
+          <t>Parenchymal bands</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.3% (1)
-complete: n = 76</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 84</t>
+          <t>32% (27)
+Complete: n = 84</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 70</t>
+          <t>23% (16)
+Complete: n = 70</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>ns (p = .36)</t>
+          <t>5.5% (5)
+Complete: n = 91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ARDS pattern</t>
+          <t>Microcystic changes</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 76</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 84</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 70</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 91</t>
+          <t>2.2% (2)
+Complete: n = 91</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>Parenchymal destruction</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7.9% (6)
-complete: n = 76</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>7.1% (6)
-complete: n = 84</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2.9% (2)
-complete: n = 70</t>
+          <t>NaN% (0)
+Complete: n = 0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0% (0)
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>p = .039</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Parenchymal bands</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>32% (27)
-complete: n = 84</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>23% (16)
-complete: n = 70</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.5% (5)
-complete: n = 91</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>p &lt; .001</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Microcystic changes</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.2% (2)
-complete: n = 91</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Parenchymal destruction</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
           <t>9.9% (9)
-complete: n = 91</t>
+Complete: n = 91</t>
         </is>
       </c>
     </row>
